--- a/result/compare/hybride/result-etroit.xlsx
+++ b/result/compare/hybride/result-etroit.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugo2\OneDrive\Documents\projet\memoire\yolov5-master\result\compare\hybride\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/hybride/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05075378-105C-4A08-BA27-0A76731C2B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB77CD73-ED83-4E47-AD80-24A6E33594EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="8370" windowWidth="29040" windowHeight="15720" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -440,7 +442,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depthmap only</c:v>
+                  <c:v>yolov5m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -457,11 +459,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -474,7 +480,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.52307692307692311</c:v>
+                  <c:v>0.53846153846153844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,7 +492,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77631578947368418</c:v>
+                  <c:v>0.72368421052631582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,7 +513,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>depthmap only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -524,11 +530,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -541,7 +547,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.53846153846153844</c:v>
+                  <c:v>0.52307692307692311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,7 +559,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.72368421052631582</c:v>
+                  <c:v>0.77631578947368418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,11 +597,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1026,7 +1032,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depthmap only</c:v>
+                  <c:v>yolov5m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1043,11 +1049,15 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1060,7 +1070,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77631578947368418</c:v>
+                  <c:v>0.75862068965517238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1072,7 +1082,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.77631578947368418</c:v>
+                  <c:v>0.72368421052631582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,7 +1103,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>depthmap only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1110,11 +1120,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1127,7 +1137,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.75862068965517238</c:v>
+                  <c:v>0.77631578947368418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +1149,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.72368421052631582</c:v>
+                  <c:v>0.77631578947368418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,11 +1187,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3266,7 +3276,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>389818</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>136524</xdr:rowOff>
+      <xdr:rowOff>133477</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3281,8 +3291,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8247943" y="2879725"/>
-          <a:ext cx="7385050" cy="4453466"/>
+          <a:off x="8953499" y="3161947"/>
+          <a:ext cx="8087430" cy="4873752"/>
           <a:chOff x="8950324" y="3302000"/>
           <a:chExt cx="8023225" cy="4705349"/>
         </a:xfrm>
@@ -3383,8 +3393,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9496336" y="3570019"/>
-              <a:ext cx="5831287" cy="2782724"/>
+              <a:off x="9566331" y="3733353"/>
+              <a:ext cx="5088621" cy="2428319"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3426,8 +3436,8 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9402740" y="3404321"/>
-              <a:ext cx="6000894" cy="2862300"/>
+              <a:off x="9542731" y="3769077"/>
+              <a:ext cx="5350206" cy="2551935"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
@@ -3844,16 +3854,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
   <dimension ref="B2:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="8" width="10.90625" style="2"/>
+    <col min="3" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3894,97 +3904,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>110</v>
+      </c>
+      <c r="D3" s="2">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3" si="0">C3+F3</f>
+        <v>152</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3" si="1">D3+E3</f>
+        <v>65</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3" si="2">C3/G3</f>
+        <v>0.72368421052631582</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3" si="3">D3/H3</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3" si="4">I3</f>
+        <v>0.72368421052631582</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3" si="5">C3/(C3+D3)</f>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3" si="6">(C3+E3)/(G3+H3)</f>
+        <v>0.64516129032258063</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>118</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>34</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>31</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>34</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G5" si="0">C3+F3</f>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4" si="7">C4+F4</f>
         <v>152</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H5" si="1">D3+E3</f>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4" si="8">D4+E4</f>
         <v>65</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I5" si="2">C3/G3</f>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4" si="9">C4/G4</f>
         <v>0.77631578947368418</v>
       </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J5" si="3">D3/H3</f>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4" si="10">D4/H4</f>
         <v>0.52307692307692311</v>
       </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3:K5" si="4">I3</f>
+      <c r="K4" s="1">
+        <f t="shared" ref="K4" si="11">I4</f>
         <v>0.77631578947368418</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L5" si="5">C3/(C3+D3)</f>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4" si="12">C4/(C4+D4)</f>
         <v>0.77631578947368418</v>
       </c>
-      <c r="M3" s="1">
-        <f t="shared" ref="M3:M5" si="6">(C3+E3)/(G3+H3)</f>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4" si="13">(C4+E4)/(G4+H4)</f>
         <v>0.68663594470046085</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
-        <v>110</v>
-      </c>
-      <c r="D4" s="2">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2">
-        <v>42</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="2"/>
-        <v>0.72368421052631582</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="3"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="4"/>
-        <v>0.72368421052631582</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" si="5"/>
-        <v>0.75862068965517238</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="6"/>
-        <v>0.64516129032258063</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4001,31 +4011,31 @@
         <v>27</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G5" si="14">C5+F5</f>
         <v>152</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H5" si="15">D5+E5</f>
         <v>65</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I5" si="16">C5/G5</f>
         <v>0.82236842105263153</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J5" si="17">D5/H5</f>
         <v>0.52307692307692311</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="K5" si="18">I5</f>
         <v>0.82236842105263153</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L5" si="19">C5/(C5+D5)</f>
         <v>0.78616352201257866</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M5" si="20">(C5+E5)/(G5+H5)</f>
         <v>0.71889400921658986</v>
       </c>
     </row>

--- a/result/compare/hybride/result-etroit.xlsx
+++ b/result/compare/hybride/result-etroit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/hybride/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB77CD73-ED83-4E47-AD80-24A6E33594EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5ADD2E-2106-3544-B733-C1FEBF8FF8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
@@ -73,13 +73,13 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>yolov5m</t>
+    <t>Yolov5m driven</t>
   </si>
   <si>
-    <t>hybride</t>
+    <t>Depth map only</t>
   </si>
   <si>
-    <t>depthmap only</t>
+    <t>Hybride</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>Yolov5m driven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -456,18 +456,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -513,7 +509,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depthmap only</c:v>
+                  <c:v>Depth map only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -527,14 +523,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -580,7 +576,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hybride</c:v>
+                  <c:v>Hybride</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -594,7 +590,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -657,6 +653,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -721,8 +731,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -836,8 +846,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1032,7 +1048,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov5m</c:v>
+                  <c:v>Yolov5m driven</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1046,18 +1062,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1103,7 +1115,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>depthmap only</c:v>
+                  <c:v>Depth map only</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1117,14 +1129,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1170,7 +1182,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hybride</c:v>
+                  <c:v>Hybride</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1197,6 +1209,30 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="7"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-D7F3-7448-ADC7-A496908D8F2D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$L$5</c:f>
@@ -2196,7 +2232,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2223,8 +2259,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2304,11 +2340,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2319,11 +2350,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2335,7 +2361,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2355,9 +2381,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2370,10 +2393,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2413,22 +2436,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2533,8 +2557,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2666,19 +2690,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2692,6 +2717,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3346,17 +3382,19 @@
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
+            <xdr:cNvCxnSpPr>
+              <a:cxnSpLocks noChangeAspect="1"/>
+            </xdr:cNvCxnSpPr>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9530831" y="3758299"/>
-              <a:ext cx="7229306" cy="3437397"/>
+              <a:off x="9613398" y="3758299"/>
+              <a:ext cx="7146739" cy="3398138"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -3393,13 +3431,13 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9566331" y="3733353"/>
+              <a:off x="9594328" y="3719730"/>
               <a:ext cx="5088621" cy="2428319"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3436,15 +3474,15 @@
           </xdr:nvCxnSpPr>
           <xdr:spPr>
             <a:xfrm flipV="1">
-              <a:off x="9542731" y="3769077"/>
+              <a:off x="9598728" y="3755454"/>
               <a:ext cx="5350206" cy="2551935"/>
             </a:xfrm>
             <a:prstGeom prst="line">
               <a:avLst/>
             </a:prstGeom>
-            <a:ln>
+            <a:ln w="22225">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
             </a:ln>
@@ -3852,10 +3890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3174BB56-041E-4E47-89EA-6DC8F744B4D8}">
-  <dimension ref="B2:N5"/>
+  <dimension ref="B2:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3863,7 +3901,7 @@
     <col min="3" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3900,11 +3938,8 @@
       <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3949,9 +3984,9 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>118</v>
@@ -3994,9 +4029,9 @@
         <v>0.68663594470046085</v>
       </c>
     </row>
-    <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>125</v>

--- a/result/compare/hybride/result-etroit.xlsx
+++ b/result/compare/hybride/result-etroit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugocianciolo/IdeaProjects/memoire-python/result/compare/hybride/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5ADD2E-2106-3544-B733-C1FEBF8FF8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBF5BD6-092A-394A-92FA-622BBE67F885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{630A7F1F-3676-4DB6-BA5B-D2AD22F82375}"/>
   </bookViews>
@@ -393,7 +393,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Roc Space</a:t>
+              <a:t>ROC Space</a:t>
             </a:r>
           </a:p>
         </c:rich>
